--- a/AA - Medicos Abril-Diciembre 2021.xlsx
+++ b/AA - Medicos Abril-Diciembre 2021.xlsx
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.793100291289838</v>
+        <v>3.793725477029483</v>
       </c>
       <c r="E2" t="n">
-        <v>3.02185030218503</v>
+        <v>3.556485355648536</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.501717374088479</v>
+        <v>4.502459355394023</v>
       </c>
       <c r="E3" t="n">
-        <v>5.183635518363553</v>
+        <v>4.253835425383542</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.501717374088479</v>
+        <v>4.502459355394023</v>
       </c>
       <c r="E4" t="n">
-        <v>4.95118549511855</v>
+        <v>3.486750348675035</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>4.333333333333333</v>
@@ -660,7 +660,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.754402535396522</v>
+        <v>4.755186164733317</v>
       </c>
       <c r="E5" t="n">
-        <v>5.416085541608554</v>
+        <v>4.253835425383542</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.754402535396522</v>
+        <v>4.755186164733317</v>
       </c>
       <c r="E6" t="n">
-        <v>5.416085541608554</v>
+        <v>4.486285448628545</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -780,22 +780,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.045539786468832</v>
+        <v>5.046371401580764</v>
       </c>
       <c r="E7" t="n">
-        <v>5.555555555555556</v>
+        <v>4.904695490469549</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O7" t="n">
         <v>0.3333333333333333</v>
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.045539786468832</v>
+        <v>5.046371401580764</v>
       </c>
       <c r="E8" t="n">
-        <v>5.741515574151557</v>
+        <v>4.904695490469549</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.045539786468832</v>
+        <v>5.046371401580764</v>
       </c>
       <c r="E9" t="n">
-        <v>5.555555555555556</v>
+        <v>4.904695490469549</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O9" t="n">
         <v>0.3333333333333333</v>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.259527191883556</v>
+        <v>6.26055889862389</v>
       </c>
       <c r="E10" t="n">
-        <v>6.020455602045561</v>
+        <v>5.090655509065551</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0.3333333333333333</v>
@@ -984,16 +984,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.677007023609888</v>
+        <v>6.678107540140983</v>
       </c>
       <c r="E11" t="n">
-        <v>6.415620641562064</v>
+        <v>7.438400743840075</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1005,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11" t="n">
         <v>0.6666666666666666</v>
@@ -1035,16 +1035,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.777257114781013</v>
+        <v>6.778374154715812</v>
       </c>
       <c r="E12" t="n">
-        <v>6.415620641562064</v>
+        <v>7.438400743840075</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1056,10 +1056,10 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12" t="n">
         <v>0.6666666666666666</v>
@@ -1086,40 +1086,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7.679507935321142</v>
+        <v>7.680773685889267</v>
       </c>
       <c r="E13" t="n">
-        <v>8.344955834495584</v>
+        <v>7.438400743840075</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="N13" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.438356164383562</v>
+        <v>1.454794520547945</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1137,37 +1137,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.607851245344166</v>
+        <v>8.60102891554865</v>
       </c>
       <c r="E14" t="n">
-        <v>8.809855880985589</v>
+        <v>9.600185960018596</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="N14" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.438356164383562</v>
+        <v>1.454794520547945</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1188,37 +1188,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.607851245344166</v>
+        <v>8.60102891554865</v>
       </c>
       <c r="E15" t="n">
-        <v>8.809855880985589</v>
+        <v>9.600185960018596</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="N15" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -1239,16 +1239,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.974519387024857</v>
+        <v>8.975998583753144</v>
       </c>
       <c r="E16" t="n">
-        <v>7.345420734542074</v>
+        <v>10.3440260344026</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1257,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0.6666666666666666</v>
@@ -1272,7 +1272,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.974519387024857</v>
+        <v>8.975998583753144</v>
       </c>
       <c r="E17" t="n">
-        <v>6.996745699674571</v>
+        <v>8.298465829846585</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0.3333333333333333</v>

--- a/AA - Medicos Abril-Diciembre 2021.xlsx
+++ b/AA - Medicos Abril-Diciembre 2021.xlsx
@@ -528,10 +528,10 @@
         <v>3.793725477029483</v>
       </c>
       <c r="E2" t="n">
-        <v>3.556485355648536</v>
+        <v>1.464435146443515</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>4.502459355394023</v>
       </c>
       <c r="E3" t="n">
-        <v>4.253835425383542</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>4.502459355394023</v>
       </c>
       <c r="E4" t="n">
-        <v>3.486750348675035</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -681,10 +681,10 @@
         <v>4.755186164733317</v>
       </c>
       <c r="E5" t="n">
-        <v>4.253835425383542</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>4.755186164733317</v>
       </c>
       <c r="E6" t="n">
-        <v>4.486285448628545</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>5.046371401580764</v>
       </c>
       <c r="E7" t="n">
-        <v>4.904695490469549</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>5.046371401580764</v>
       </c>
       <c r="E8" t="n">
-        <v>4.904695490469549</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -885,13 +885,13 @@
         <v>5.046371401580764</v>
       </c>
       <c r="E9" t="n">
-        <v>4.904695490469549</v>
+        <v>2.394235239423524</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -936,13 +936,13 @@
         <v>6.26055889862389</v>
       </c>
       <c r="E10" t="n">
-        <v>5.090655509065551</v>
+        <v>2.859135285913529</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>6.678107540140983</v>
       </c>
       <c r="E11" t="n">
-        <v>7.438400743840075</v>
+        <v>6.97350069735007</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O11" t="n">
         <v>0.6666666666666666</v>
@@ -1038,10 +1038,10 @@
         <v>6.778374154715812</v>
       </c>
       <c r="E12" t="n">
-        <v>7.438400743840075</v>
+        <v>7.670850767085077</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0.6666666666666666</v>
@@ -1089,10 +1089,10 @@
         <v>7.680773685889267</v>
       </c>
       <c r="E13" t="n">
-        <v>7.438400743840075</v>
+        <v>7.670850767085077</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0.6666666666666666</v>
@@ -1242,7 +1242,7 @@
         <v>8.975998583753144</v>
       </c>
       <c r="E16" t="n">
-        <v>10.3440260344026</v>
+        <v>8.87959088795909</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -1257,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1293,10 +1293,10 @@
         <v>8.975998583753144</v>
       </c>
       <c r="E17" t="n">
-        <v>8.298465829846585</v>
+        <v>8.763365876336589</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
